--- a/Documents/Instruction Set.xlsx
+++ b/Documents/Instruction Set.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="101">
   <si>
     <t>adds</t>
   </si>
@@ -189,15 +189,9 @@
     <t>Push local</t>
   </si>
   <si>
-    <t>Push global</t>
-  </si>
-  <si>
     <t>Pop local</t>
   </si>
   <si>
-    <t>Pop global</t>
-  </si>
-  <si>
     <t>Branch</t>
   </si>
   <si>
@@ -319,6 +313,12 @@
   </si>
   <si>
     <t>t</t>
+  </si>
+  <si>
+    <t>Push</t>
+  </si>
+  <si>
+    <t>Pop</t>
   </si>
 </sst>
 </file>
@@ -354,8 +354,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -652,11 +655,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="4" width="2.7109375" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -665,35 +672,35 @@
       <c r="B1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1" t="s">
-        <v>100</v>
+      <c r="C1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>99</v>
+      <c r="C2" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>99</v>
+      <c r="C3" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>99</v>
+      <c r="C4" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -703,21 +710,33 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
+      <c r="C7" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>7</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
@@ -726,21 +745,33 @@
       <c r="B9" t="s">
         <v>10</v>
       </c>
+      <c r="C9" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>15</v>
       </c>
+      <c r="C10" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>16</v>
       </c>
+      <c r="C11" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>17</v>
       </c>
+      <c r="C12" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
@@ -749,121 +780,184 @@
       <c r="B13" t="s">
         <v>11</v>
       </c>
+      <c r="C13" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>19</v>
       </c>
+      <c r="C14" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>20</v>
       </c>
+      <c r="C15" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>22</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>26</v>
       </c>
       <c r="B21" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>40</v>
       </c>
       <c r="B28" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>43</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>44</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>45</v>
       </c>
+      <c r="C33" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
@@ -903,7 +997,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B40" t="s">
         <v>37</v>
@@ -911,27 +1005,27 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -941,40 +1035,40 @@
       <c r="B46" t="s">
         <v>36</v>
       </c>
-      <c r="C46" t="s">
-        <v>99</v>
-      </c>
-      <c r="D46" t="s">
-        <v>100</v>
+      <c r="C46" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>53</v>
       </c>
-      <c r="C47" t="s">
-        <v>99</v>
+      <c r="C47" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>54</v>
       </c>
-      <c r="C48" t="s">
-        <v>99</v>
+      <c r="C48" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>55</v>
       </c>
-      <c r="C49" t="s">
-        <v>99</v>
+      <c r="C49" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B50" t="s">
         <v>56</v>
@@ -982,175 +1076,187 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B66" t="s">
-        <v>60</v>
-      </c>
-      <c r="C66" t="s">
-        <v>99</v>
-      </c>
-      <c r="D66" t="s">
-        <v>100</v>
+        <v>58</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B73" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B75" t="s">
-        <v>93</v>
+        <v>91</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>95</v>
+        <v>93</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B77" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
+        <v>96</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="C78" t="s">
-        <v>99</v>
-      </c>
-      <c r="D78" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Instruction Set.xlsx
+++ b/Documents/Instruction Set.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="101">
   <si>
     <t>adds</t>
   </si>
@@ -655,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J64" sqref="J64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -966,16 +966,25 @@
       <c r="B34" t="s">
         <v>39</v>
       </c>
+      <c r="C34" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>47</v>
       </c>
+      <c r="C35" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>48</v>
       </c>
+      <c r="C36" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
@@ -984,16 +993,25 @@
       <c r="B37" t="s">
         <v>38</v>
       </c>
+      <c r="C37" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>50</v>
       </c>
+      <c r="C38" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>51</v>
       </c>
+      <c r="C39" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
@@ -1002,31 +1020,49 @@
       <c r="B40" t="s">
         <v>37</v>
       </c>
+      <c r="C40" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>79</v>
       </c>
+      <c r="C41" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>80</v>
       </c>
+      <c r="C42" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>81</v>
       </c>
+      <c r="C43" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>82</v>
       </c>
+      <c r="C44" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>83</v>
       </c>
+      <c r="C45" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
@@ -1261,6 +1297,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Documents/Instruction Set.xlsx
+++ b/Documents/Instruction Set.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="18975" windowHeight="11445"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="15270" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="101">
   <si>
     <t>adds</t>
   </si>
@@ -655,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="J64" sqref="J64"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1212,30 +1212,48 @@
       <c r="A67" t="s">
         <v>60</v>
       </c>
+      <c r="C67" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>61</v>
       </c>
+      <c r="C68" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>84</v>
       </c>
+      <c r="C69" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>85</v>
       </c>
+      <c r="C70" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>86</v>
       </c>
+      <c r="C71" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>87</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="73" spans="1:4">

--- a/Documents/Instruction Set.xlsx
+++ b/Documents/Instruction Set.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="101">
   <si>
     <t>adds</t>
   </si>
@@ -655,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1132,20 +1132,32 @@
       <c r="B54" t="s">
         <v>99</v>
       </c>
+      <c r="C54" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>71</v>
       </c>
+      <c r="C55" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>72</v>
       </c>
+      <c r="C56" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>73</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="58" spans="1:3">

--- a/Documents/Instruction Set.xlsx
+++ b/Documents/Instruction Set.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="103">
   <si>
     <t>adds</t>
   </si>
@@ -319,6 +319,12 @@
   </si>
   <si>
     <t>Pop</t>
+  </si>
+  <si>
+    <t>exit</t>
+  </si>
+  <si>
+    <t>Nop</t>
   </si>
 </sst>
 </file>
@@ -653,11 +659,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="H75" sqref="H75"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1316,12 +1320,20 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
         <v>96</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D78" s="1" t="s">
+      <c r="B79" t="s">
+        <v>102</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>98</v>
       </c>
     </row>

--- a/Documents/Instruction Set.xlsx
+++ b/Documents/Instruction Set.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="103">
   <si>
     <t>adds</t>
   </si>
@@ -661,7 +661,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -812,7 +814,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -823,7 +825,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -831,7 +833,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -839,7 +841,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -847,7 +849,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -857,8 +859,11 @@
       <c r="C21" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -866,7 +871,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -874,7 +879,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -882,7 +887,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -893,7 +898,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -901,7 +906,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -909,7 +914,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -920,7 +925,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -928,7 +933,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -936,7 +941,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -947,7 +952,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -1098,7 +1103,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -1106,7 +1111,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>74</v>
       </c>
@@ -1114,22 +1119,22 @@
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>70</v>
       </c>
@@ -1139,8 +1144,11 @@
       <c r="C54" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>71</v>
       </c>
@@ -1148,7 +1156,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>72</v>
       </c>
@@ -1156,7 +1164,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>73</v>
       </c>
@@ -1164,7 +1172,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>66</v>
       </c>
@@ -1172,43 +1180,58 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>62</v>
       </c>
       <c r="B62" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="C62" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="C63" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>64</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>65</v>
       </c>
+      <c r="C65" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
@@ -1279,11 +1302,17 @@
       <c r="B73" t="s">
         <v>88</v>
       </c>
+      <c r="C73" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>90</v>
       </c>
+      <c r="C74" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
@@ -1321,6 +1350,9 @@
     <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>101</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="79" spans="1:4">
